--- a/IDS.xlsx
+++ b/IDS.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="22">
   <si>
     <t>Gaussian Naive Bayes</t>
   </si>
@@ -45,6 +45,18 @@
   </si>
   <si>
     <t>TN</t>
+  </si>
+  <si>
+    <t>FPR</t>
+  </si>
+  <si>
+    <t>TNR</t>
+  </si>
+  <si>
+    <t>Opoziv</t>
+  </si>
+  <si>
+    <t>F-mjera</t>
   </si>
   <si>
     <t>dos</t>
@@ -429,141 +441,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="5" max="8" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="4" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.702362060546875</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
+        <v>0.6929843425750732</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
         <v>3671898</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>91867</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>211472</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>923194</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2">
+        <v>9.050392045404168</v>
+      </c>
+      <c r="J2">
+        <v>90.94960795459583</v>
+      </c>
+      <c r="K2">
+        <v>94.55442051620113</v>
+      </c>
+      <c r="L2">
+        <v>95.86965432897061</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7.613465070724487</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
+        <v>7.550298690795898</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
         <v>625681</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1899</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>347100</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3923751</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3">
+        <v>0.0483741545986015</v>
+      </c>
+      <c r="J3">
+        <v>99.95162584540141</v>
+      </c>
+      <c r="K3">
+        <v>64.31879323300927</v>
+      </c>
+      <c r="L3">
+        <v>77.41947313601165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.9722199357012082</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
+        <v>97.22199357012083</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
         <v>40695</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>391431</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>407</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4465898</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4">
+        <v>8.058564696770592</v>
+      </c>
+      <c r="J4">
+        <v>91.94143530322941</v>
+      </c>
+      <c r="K4">
+        <v>99.00978054595883</v>
+      </c>
+      <c r="L4">
+        <v>98.10774316216624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.8857456601920084</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
+        <v>88.57456601920084</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
         <v>443</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>7816</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>683</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4889489</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
+      <c r="I5">
+        <v>0.1595979829722674</v>
+      </c>
+      <c r="J5">
+        <v>99.84040201702773</v>
+      </c>
+      <c r="K5">
+        <v>39.34280639431616</v>
+      </c>
+      <c r="L5">
+        <v>56.01715919907303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
         <v>47</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>66654</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4831725</v>
+      </c>
+      <c r="I6">
+        <v>1.36073586792692</v>
+      </c>
+      <c r="J6">
+        <v>98.63926413207308</v>
+      </c>
+      <c r="K6">
+        <v>90.38461538461539</v>
+      </c>
+      <c r="L6">
+        <v>93.6787093452667</v>
       </c>
     </row>
   </sheetData>
@@ -573,141 +658,214 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="5" max="8" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="4" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.9824991226196289</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>3880678</v>
+        <v>1.178173065185547</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>9505</v>
+        <v>3883029</v>
       </c>
       <c r="F2">
-        <v>2692</v>
+        <v>65</v>
       </c>
       <c r="G2">
-        <v>1005556</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>341</v>
+      </c>
+      <c r="H2">
+        <v>1014996</v>
+      </c>
+      <c r="I2">
+        <v>0.00640355604244474</v>
+      </c>
+      <c r="J2">
+        <v>99.99359644395756</v>
+      </c>
+      <c r="K2">
+        <v>99.99121896703122</v>
+      </c>
+      <c r="L2">
+        <v>99.87042078714735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.6334199905395508</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>915427</v>
+        <v>0.6829149723052979</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>7028</v>
+        <v>957403</v>
       </c>
       <c r="F3">
-        <v>57354</v>
+        <v>1782</v>
       </c>
       <c r="G3">
-        <v>3918622</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>15378</v>
+      </c>
+      <c r="H3">
+        <v>3923868</v>
+      </c>
+      <c r="I3">
+        <v>0.04539375644797677</v>
+      </c>
+      <c r="J3">
+        <v>99.95460624355202</v>
+      </c>
+      <c r="K3">
+        <v>98.41917142707352</v>
+      </c>
+      <c r="L3">
+        <v>99.0800746820905</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.9914686949831155</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>36298</v>
+        <v>99.74991412471923</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>49495</v>
+        <v>40097</v>
       </c>
       <c r="F4">
-        <v>4804</v>
+        <v>11908</v>
       </c>
       <c r="G4">
-        <v>4807834</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>1005</v>
+      </c>
+      <c r="H4">
+        <v>4845421</v>
+      </c>
+      <c r="I4">
+        <v>0.2451553106655942</v>
+      </c>
+      <c r="J4">
+        <v>99.7548446893344</v>
+      </c>
+      <c r="K4">
+        <v>97.55486351029147</v>
+      </c>
+      <c r="L4">
+        <v>98.64017865397649</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.9865205817944562</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+        <v>99.64831596076377</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="F5">
-        <v>1126</v>
+        <v>3466</v>
       </c>
       <c r="G5">
-        <v>4897305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
+        <v>459</v>
+      </c>
+      <c r="H5">
+        <v>4893839</v>
+      </c>
+      <c r="I5">
+        <v>0.07077361936820353</v>
+      </c>
+      <c r="J5">
+        <v>99.9292263806318</v>
+      </c>
+      <c r="K5">
+        <v>59.23623445825933</v>
+      </c>
+      <c r="L5">
+        <v>74.3311207038789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="D6" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F6">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>4898379</v>
+        <v>44</v>
+      </c>
+      <c r="H6">
+        <v>4898373</v>
+      </c>
+      <c r="I6">
+        <v>0.0001224895011186354</v>
+      </c>
+      <c r="J6">
+        <v>99.99987751049888</v>
+      </c>
+      <c r="K6">
+        <v>15.38461538461539</v>
+      </c>
+      <c r="L6">
+        <v>26.65775541007963</v>
       </c>
     </row>
   </sheetData>
@@ -717,141 +875,214 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="5" max="8" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="4" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.7319016456604</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
-        <v>3881330</v>
+        <v>6.786987066268921</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="E2">
-        <v>3356</v>
+        <v>3881243</v>
       </c>
       <c r="F2">
-        <v>2040</v>
+        <v>2438</v>
       </c>
       <c r="G2">
-        <v>1011705</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>2127</v>
+      </c>
+      <c r="H2">
+        <v>1012623</v>
+      </c>
+      <c r="I2">
+        <v>0.2401826097150812</v>
+      </c>
+      <c r="J2">
+        <v>99.75981739028492</v>
+      </c>
+      <c r="K2">
+        <v>99.94522798497182</v>
+      </c>
+      <c r="L2">
+        <v>99.91384885807378</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>9.958163499832153</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>969152</v>
+        <v>9.911427974700928</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>2745</v>
+        <v>969992</v>
       </c>
       <c r="F3">
-        <v>3629</v>
+        <v>2918</v>
       </c>
       <c r="G3">
-        <v>3922905</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>2789</v>
+      </c>
+      <c r="H3">
+        <v>3922732</v>
+      </c>
+      <c r="I3">
+        <v>0.07433163934635029</v>
+      </c>
+      <c r="J3">
+        <v>99.92566836065365</v>
+      </c>
+      <c r="K3">
+        <v>99.71329620952712</v>
+      </c>
+      <c r="L3">
+        <v>99.79782110835512</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.9986919589058192</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>40652</v>
+        <v>99.88248942877568</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>72</v>
+        <v>40658</v>
       </c>
       <c r="F4">
-        <v>450</v>
+        <v>119</v>
       </c>
       <c r="G4">
-        <v>4857257</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>444</v>
+      </c>
+      <c r="H4">
+        <v>4857210</v>
+      </c>
+      <c r="I4">
+        <v>0.002449906110951101</v>
+      </c>
+      <c r="J4">
+        <v>99.99755009388906</v>
+      </c>
+      <c r="K4">
+        <v>98.91976059559146</v>
+      </c>
+      <c r="L4">
+        <v>99.39879393492934</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.9986955006613342</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>890</v>
+        <v>99.88308501232333</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>205</v>
+        <v>789</v>
       </c>
       <c r="F5">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G5">
-        <v>4897100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
+        <v>337</v>
+      </c>
+      <c r="H5">
+        <v>4897072</v>
+      </c>
+      <c r="I5">
+        <v>0.004757718786148708</v>
+      </c>
+      <c r="J5">
+        <v>99.99524228121385</v>
+      </c>
+      <c r="K5">
+        <v>70.07104795737122</v>
+      </c>
+      <c r="L5">
+        <v>82.36216573666739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F6">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="G6">
-        <v>4898367</v>
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>4898360</v>
+      </c>
+      <c r="I6">
+        <v>0.000387883420209012</v>
+      </c>
+      <c r="J6">
+        <v>99.9996121165798</v>
+      </c>
+      <c r="K6">
+        <v>42.30769230769231</v>
+      </c>
+      <c r="L6">
+        <v>59.43866978819912</v>
       </c>
     </row>
   </sheetData>
@@ -861,141 +1092,214 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="5" max="8" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="4" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>32.30577087402344</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
+        <v>32.84982228279114</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
         <v>3880348</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1103</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3022</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1013958</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2">
+        <v>0.1086634202279469</v>
+      </c>
+      <c r="J2">
+        <v>99.89133657977204</v>
+      </c>
+      <c r="K2">
+        <v>99.92218099228248</v>
+      </c>
+      <c r="L2">
+        <v>99.86088286245868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.6221635341644287</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
+        <v>0.6212000846862793</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
         <v>970270</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>7379</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>2511</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3918271</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3">
+        <v>0.1879688713970935</v>
+      </c>
+      <c r="J3">
+        <v>99.81203112860291</v>
+      </c>
+      <c r="K3">
+        <v>99.74187407032004</v>
+      </c>
+      <c r="L3">
+        <v>99.77075861510936</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.9979965989426663</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
+        <v>99.79965989426664</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
         <v>37041</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>595</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4061</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4856734</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4">
+        <v>0.01224953055475551</v>
+      </c>
+      <c r="J4">
+        <v>99.98775046944525</v>
+      </c>
+      <c r="K4">
+        <v>90.1197022042723</v>
+      </c>
+      <c r="L4">
+        <v>94.71299324491736</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.9979356655222866</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
+        <v>99.79356655222867</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
         <v>636</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>1008</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>490</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4896297</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
+      <c r="I5">
+        <v>0.02058274908342445</v>
+      </c>
+      <c r="J5">
+        <v>99.97941725091658</v>
+      </c>
+      <c r="K5">
+        <v>56.48312611012434</v>
+      </c>
+      <c r="L5">
+        <v>72.13842189116083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
         <v>24</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>27</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>28</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4898352</v>
+      </c>
+      <c r="I6">
+        <v>0.0005512027550338591</v>
+      </c>
+      <c r="J6">
+        <v>99.99944879724497</v>
+      </c>
+      <c r="K6">
+        <v>46.15384615384615</v>
+      </c>
+      <c r="L6">
+        <v>63.11788286124163</v>
       </c>
     </row>
   </sheetData>
@@ -1005,141 +1309,214 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="5" max="8" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="4" max="8" width="10.7109375" customWidth="1"/>
+    <col min="9" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>265.0237741470337</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2">
+        <v>260.1580941677094</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2">
         <v>3882154</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>12509</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>1216</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1002552</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="I2">
+        <v>1.232339731306788</v>
+      </c>
+      <c r="J2">
+        <v>98.76766026869322</v>
+      </c>
+      <c r="K2">
+        <v>99.96868699093828</v>
+      </c>
+      <c r="L2">
+        <v>99.81592340295678</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>31.31238031387329</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
+        <v>31.69872570037842</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3">
         <v>954160</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>2632</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>18621</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>3923018</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="I3">
+        <v>0.06704622164482316</v>
+      </c>
+      <c r="J3">
+        <v>99.93295377835517</v>
+      </c>
+      <c r="K3">
+        <v>98.08579731717622</v>
+      </c>
+      <c r="L3">
+        <v>98.86841695845239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0.9966362598308768</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4">
+        <v>99.66362598308768</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4">
         <v>39754</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>276</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1348</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4857053</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="I4">
+        <v>0.005682135181701713</v>
+      </c>
+      <c r="J4">
+        <v>99.9943178648183</v>
+      </c>
+      <c r="K4">
+        <v>96.72035424066956</v>
+      </c>
+      <c r="L4">
+        <v>98.1699342177577</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.9955796049796353</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
+        <v>99.55796049796352</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
         <v>683</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>6197</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>443</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4891108</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6">
+      <c r="I5">
+        <v>0.1265389841964101</v>
+      </c>
+      <c r="J5">
+        <v>99.87346101580358</v>
+      </c>
+      <c r="K5">
+        <v>60.65719360568384</v>
+      </c>
+      <c r="L5">
+        <v>75.4152314366538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="D6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
         <v>27</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>39</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>25</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>4898340</v>
+      </c>
+      <c r="I6">
+        <v>0.0007961817572711299</v>
+      </c>
+      <c r="J6">
+        <v>99.99920381824273</v>
+      </c>
+      <c r="K6">
+        <v>51.92307692307693</v>
+      </c>
+      <c r="L6">
+        <v>68.27567351413359</v>
       </c>
     </row>
   </sheetData>
